--- a/ty/output.xlsx
+++ b/ty/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,49 +490,45 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7586571</v>
+        <v>155636397</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8682164745731</t>
+          <t>CDC2260000848776</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
-        </is>
-      </c>
+          <t>Balon Kol Ekose Gömlek</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Beden:34</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>71.98999999999999</v>
+        <v>63.92</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
+          <t>Kumaş Türü: %70 Acrylic %30 Polyester Model Boy: 1.74 cm Model Bel: 62 cm Model Göğüs: 78 cm Model Basen: 88 cm Görsel Bedeni: S/26/36</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
+          <t>https://www.trendyol.com/caddecity/balon-kol-ekose-gomlek-p-155636397</t>
         </is>
       </c>
     </row>
@@ -541,49 +537,45 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7586571</v>
+        <v>155636397</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8682164745748</t>
+          <t>CDC2260000848769</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
-        </is>
-      </c>
+          <t>Balon Kol Ekose Gömlek</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Beden:36</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>71.98999999999999</v>
+        <v>63.92</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
+          <t>Kumaş Türü: %70 Acrylic %30 Polyester Model Boy: 1.74 cm Model Bel: 62 cm Model Göğüs: 78 cm Model Basen: 88 cm Görsel Bedeni: S/26/36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
+          <t>https://www.trendyol.com/caddecity/balon-kol-ekose-gomlek-p-155636397</t>
         </is>
       </c>
     </row>
@@ -592,49 +584,45 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7586571</v>
+        <v>155636397</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8682164745755</t>
+          <t>CDC2260000848752</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
-        </is>
-      </c>
+          <t>Balon Kol Ekose Gömlek</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Beden:38</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>71.98999999999999</v>
+        <v>63.92</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/22/143099511/257502338/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/22/143099511/257502338/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
+          <t>Kumaş Türü: %70 Acrylic %30 Polyester Model Boy: 1.74 cm Model Bel: 62 cm Model Göğüs: 78 cm Model Basen: 88 cm Görsel Bedeni: S/26/36</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
+          <t>https://www.trendyol.com/caddecity/balon-kol-ekose-gomlek-p-155636397</t>
         </is>
       </c>
     </row>
@@ -647,7 +635,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8682164745762</t>
+          <t>8682164745731</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,7 +650,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Beden:40</t>
+          <t>Beden:34</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -680,7 +668,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -694,45 +682,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>142535185</v>
+        <v>7586571</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>K213270006000</t>
+          <t>8682164745748</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Beden:XS/S</t>
+          <t>Beden:36</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>119.98</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
+          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
         </is>
       </c>
     </row>
@@ -741,45 +733,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>142535185</v>
+        <v>7586571</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>K213270006001</t>
+          <t>8682164745755</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Beden:M/L</t>
+          <t>Beden:38</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>119.98</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
+          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
         </is>
       </c>
     </row>
@@ -788,45 +784,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>142535185</v>
+        <v>7586571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>K213270006002</t>
+          <t>8682164745762</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Beyaz Boyfriend Gömlek TWOAW20GO0115</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Koleksiyon : Basic | Kalıp : Oversize | Kumaş Tipi : Dokuma | Stil : Trend | Yaka : Gömlek Yaka | Desen : Düz Renk | Kumaş / İplik : Pamuk Polyester | Cep : Tek | Ürün Tipi : Düz | Kol Boyu : Uzun | Renk : Beyaz </t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Beden:XL/XXL</t>
+          <t>Beden:40</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>119.98</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty8/product/media/images/20200724/16/5868134/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty157/product/media/images/20210809/10/117038023/22331498/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty156/product/media/images/20210809/10/117038023/22331498/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/7/7_org_zoom.jpg | https://cdn.dsmcdn.com//ty158/product/media/images/20210809/10/117038023/22331498/8/8_org_zoom.jpg | https://cdn.dsmcdn.com//ty143/product/media/images/20210706/14/107551161/22331498/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty141/product/media/images/20210706/14/107551161/22331498/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty7/product/media/images/20200724/16/5868134/22331498/9/9_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+          <t>Modelin Ölçüleri: Boy: 1.72, Göğüs: 82 , Bel: 59, Kalça: 88</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
+          <t>https://www.trendyol.com/trendyolmilla/beyaz-boyfriend-gomlek-twoaw20go0115-p-7586571</t>
         </is>
       </c>
     </row>
@@ -835,45 +835,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>142535185</v>
+        <v>117701690</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>K213270006003</t>
+          <t>8683043348708</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Ekru Kuşgözü Detaylı Triko Kazak TWOAW22KZ0212</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz | Kalıp : Fitted | Renk : Ekru | Kol Boyu : Uzun | Kalınlık : İnce | Teknik : İnce Gauge </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Beden:12-14 Yaş</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>119.98</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty155/product/media/images/20210805/19/116011436/189543664/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/5/5_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+          <t>Modelin Ölçüleri: Boy: 1.75, Göğüs: 80, Bel: 60, Kalça: 88</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
+          <t>https://www.trendyol.com/trendyolmilla/ekru-kusgozu-detayli-triko-kazak-twoaw22kz0212-p-117701690</t>
         </is>
       </c>
     </row>
@@ -882,45 +886,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68642682</v>
+        <v>117701690</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TXB31DE9251186</t>
+          <t>8683043348715</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Berkeley Oversize Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Ekru Kuşgözü Detaylı Triko Kazak TWOAW22KZ0212</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz | Kalıp : Fitted | Renk : Ekru | Kol Boyu : Uzun | Kalınlık : İnce | Teknik : İnce Gauge </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Beden:S</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>44.95</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty155/product/media/images/20210805/19/116011436/189543664/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/5/5_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
+          <t>Modelin Ölçüleri: Boy: 1.75, Göğüs: 80, Bel: 60, Kalça: 88</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
+          <t>https://www.trendyol.com/trendyolmilla/ekru-kusgozu-detayli-triko-kazak-twoaw22kz0212-p-117701690</t>
         </is>
       </c>
     </row>
@@ -929,45 +937,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68642682</v>
+        <v>117701690</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TXB31DE9251187</t>
+          <t>8683043348722</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Berkeley Oversize Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Ekru Kuşgözü Detaylı Triko Kazak TWOAW22KZ0212</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz | Kalıp : Fitted | Renk : Ekru | Kol Boyu : Uzun | Kalınlık : İnce | Teknik : İnce Gauge </t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Beden:M</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>49.41</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty155/product/media/images/20210805/19/116011436/189543664/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty153/product/media/images/20210805/19/116011436/189543664/5/5_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
+          <t>Modelin Ölçüleri: Boy: 1.75, Göğüs: 80, Bel: 60, Kalça: 88</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
+          <t>https://www.trendyol.com/trendyolmilla/ekru-kusgozu-detayli-triko-kazak-twoaw22kz0212-p-117701690</t>
         </is>
       </c>
     </row>
@@ -976,45 +988,49 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68642682</v>
+        <v>159089637</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TXB31DE9251188</t>
+          <t>123456782614</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Berkeley Oversize Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Sweat Fashiontayt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Desen : Düz Renk | Kol Tipi : Uzun | Renk : Mor | Boy / Ölçü : Orta </t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Beden:L</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>49.41</v>
+        <v>224.1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty196/product/media/images/20211013/11/146540227/262024340/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
+          <t>İçi Polarlıdır S,M,L Bedenleri Mevcuttur.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
+          <t>https://www.trendyol.com/fashiontayt/sweat-fashiontayt-p-159089637</t>
         </is>
       </c>
     </row>
@@ -1023,45 +1039,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141006874</v>
+        <v>159089637</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8693356003270</t>
+          <t>123456772614</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Sweat Fashiontayt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Desen : Düz Renk | Kol Tipi : Uzun | Renk : Mor | Boy / Ölçü : Orta </t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beden:S</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>59.9</v>
+        <v>224.1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty196/product/media/images/20211013/11/146540227/262024340/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Oversize Kalıp</t>
+          <t>İçi Polarlıdır S,M,L Bedenleri Mevcuttur.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
+          <t>https://www.trendyol.com/fashiontayt/sweat-fashiontayt-p-159089637</t>
         </is>
       </c>
     </row>
@@ -1070,45 +1090,49 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141006874</v>
+        <v>159089637</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8696754802858</t>
+          <t>123456762614</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Sweat Fashiontayt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Desen : Düz Renk | Kol Tipi : Uzun | Renk : Mor | Boy / Ölçü : Orta </t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Beden:M</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>69.90000000000001</v>
+        <v>224.1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty196/product/media/images/20211013/11/146540227/262024340/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Oversize Kalıp</t>
+          <t>İçi Polarlıdır S,M,L Bedenleri Mevcuttur.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
+          <t>https://www.trendyol.com/fashiontayt/sweat-fashiontayt-p-159089637</t>
         </is>
       </c>
     </row>
@@ -1117,45 +1141,45 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141006874</v>
+        <v>68642682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8692726640770</t>
+          <t>TXB31DE9251186</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
+          <t>Berkeley Oversize Sweatshirt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Beden:L</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>69.90000000000001</v>
+        <v>44.95</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Oversize Kalıp</t>
+          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
+          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
         </is>
       </c>
     </row>
@@ -1164,45 +1188,45 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83640313</v>
+        <v>68642682</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>J-21097-S-M</t>
+          <t>TXB31DE9251187</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+          <t>Berkeley Oversize Sweatshirt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Beden:S-M</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>79.98999999999999</v>
+        <v>49.41</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
         </is>
       </c>
     </row>
@@ -1211,45 +1235,45 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83640313</v>
+        <v>68642682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J-21097-2XL-3XL</t>
+          <t>TXB31DE9251188</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+          <t>Berkeley Oversize Sweatshirt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Beden:2XL/3XL</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>79.98999999999999</v>
+        <v>49.41</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211021/18/153544966/118924630/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211021/18/153544966/118924630/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty205/product/media/images/20211021/18/153544966/118924630/6/6_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+          <t>Modelin üzerindeki small bedendir %95 viscos %5 elastane</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+          <t>https://www.trendyol.com/modayildizlar/berkeley-oversize-sweatshirt-p-68642682</t>
         </is>
       </c>
     </row>
@@ -1258,45 +1282,45 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83640313</v>
+        <v>141006874</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>J-21097-L-XL</t>
+          <t>8693356003270</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Beden:L-XL</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>79.98999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+          <t>Oversize Kalıp</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
         </is>
       </c>
     </row>
@@ -1305,49 +1329,45 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>94332943</v>
+        <v>141006874</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>232dark235670566</t>
+          <t>8696754802858</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Beden:XS</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>79</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize Kalıp</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
         </is>
       </c>
     </row>
@@ -1356,49 +1376,45 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>94332943</v>
+        <v>141006874</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>232dark235670567</t>
+          <t>8692726640770</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Kadın Gri Palm Springs Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Beden:S</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>59.9</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210908/23/127820305/239292593/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty171/product/media/images/20210908/23/127820305/239292593/3/3_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize Kalıp</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/alika/kadin-gri-palm-springs-oversize-sweatshirt-p-141006874</t>
         </is>
       </c>
     </row>
@@ -1407,49 +1423,45 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>94332943</v>
+        <v>142535185</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>232dark235670568</t>
+          <t>K213270006000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Beden:M</t>
+          <t>Beden:XS/S</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>79</v>
+        <v>119.98</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
         </is>
       </c>
     </row>
@@ -1458,49 +1470,45 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>94332943</v>
+        <v>142535185</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>232dark235670569</t>
+          <t>K213270006001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Beden:L</t>
+          <t>Beden:M/L</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>79</v>
+        <v>119.98</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
         </is>
       </c>
     </row>
@@ -1509,49 +1517,45 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>94332943</v>
+        <v>142535185</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>232dark235670570</t>
+          <t>K213270006002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Beden:XL</t>
+          <t>Beden:XL/XXL</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>79</v>
+        <v>119.98</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
         </is>
       </c>
     </row>
@@ -1560,49 +1564,45 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>94332943</v>
+        <v>142535185</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>232dark235670571</t>
+          <t>K213270006003</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
-        </is>
-      </c>
+          <t>Füme Kapşonlu Teddy Düşük Omuz Peluş Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Beden:XXL</t>
+          <t>Beden:12-14 Yaş</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>99.98999999999999</v>
+        <v>119.98</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty176/product/media/images/20210913/14/129441565/241172469/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty186/product/media/images/20211005/11/140087003/254063515/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty175/product/media/images/20210913/14/129441565/241172469/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty187/product/media/images/20211005/11/140087003/254063515/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty174/product/media/images/20210913/14/129441565/241172469/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty188/product/media/images/20211005/11/140087003/254063515/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
+          <t>Oversize kadın sweatshirt kadın sweatshirt kapşonlu sweatshirt xs-S: En: 52cm m-L: En 56cm xl-Xxl en 60cm ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
+          <t>https://www.trendyol.com/millionaire/fume-kapsonlu-teddy-dusuk-omuz-pelus-sweatshirt-p-142535185</t>
         </is>
       </c>
     </row>
@@ -1611,49 +1611,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82579358</v>
+        <v>94332943</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AA00005230</t>
+          <t>232dark235670566</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Siyah-beyaz Fitilli Super Crop Örme Atlet</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stil : Casual | Askı : Ekstra kalın | Kol Tipi : Kolsuz | Kalıp : Crop | Kumaş Tipi : Triko | Materyal : Triko | Desen : Düz Renk | Yaka : Kare Yaka | Renk : Beyaz | Kumaş / İplik : Pamuk Akrilik | Ürün Detayı : Dokuma Garni | Ürün Tipi : Düz </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Beden:3XS</t>
+          <t>Beden:XS</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>27.4</v>
+        <v>79</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty200/product/media/images/20211015/19/149284578/139384524/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/3/3_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Kadın giyim kalın askılı kare yaka crop</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/isilda/siyah-beyaz-fitilli-super-crop-orme-atlet-p-82579358</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1662,49 +1662,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82579358</v>
+        <v>94332943</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AA0000523</t>
+          <t>232dark235670567</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Siyah-beyaz Fitilli Super Crop Örme Atlet</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stil : Casual | Askı : Ekstra kalın | Kol Tipi : Kolsuz | Kalıp : Crop | Kumaş Tipi : Triko | Materyal : Triko | Desen : Düz Renk | Yaka : Kare Yaka | Renk : Beyaz | Kumaş / İplik : Pamuk Akrilik | Ürün Detayı : Dokuma Garni | Ürün Tipi : Düz </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Beden:STD</t>
+          <t>Beden:S</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>27.4</v>
+        <v>59.9</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty200/product/media/images/20211015/19/149284578/139384524/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/3/3_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Kadın giyim kalın askılı kare yaka crop</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/isilda/siyah-beyaz-fitilli-super-crop-orme-atlet-p-82579358</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1713,49 +1713,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>149972254</v>
+        <v>94332943</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8496160216139</t>
+          <t>232dark235670568</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kadın Çikolata Oversize Uzun Basic Gömlek  DD00842</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kapama : Düğmeli | Materyal : Pamuk-Polyester | Kalıp : Oversize | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi | Desen : Düz Renk | Model : Oversize | Boy / Ölçü : Uzun | Ürün Tipi : Düz | Kol Boyu : Uzun | Koleksiyon : Basic </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Beden:36</t>
+          <t>Beden:M</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>108.95</v>
+        <v>79</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty185/product/media/images/20210927/17/136853831/250245591/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty185/product/media/images/20210927/17/136853831/250245591/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty183/product/media/images/20210927/17/136853831/250245591/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty184/product/media/images/20210927/17/136853831/250245591/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>%70 Pamuk %30 Polyester</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3 - 6 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/happiness-ist/kadin-cikolata-oversize-uzun-basic-gomlek-dd00842-p-149972254</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1764,49 +1764,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>149372021</v>
+        <v>94332943</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5533832679</t>
+          <t>232dark235670569</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kadın Sarı Nakış Detaylı Sweatshirt</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koleksiyon : Young | Materyal : Pamuklu | Stil : Trend | Kalıp : Oversize | Kumaş Tipi : Örme | Desen : Nakışlı / İşlemeli | Kol Tipi : Uzun | Kullanım Alanı : Günlük | Renk : Sarı | Model : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Ürün Tipi : İpliği Boyalı | Yaka : Bisiklet Yaka </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Beden:S</t>
+          <t>Beden:L</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>94.5</v>
+        <v>79</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156384036/250353848/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty211/product/media/images/20211026/12/156384036/250353848/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/leprikon/kadin-sari-nakis-detayli-sweatshirt-p-149372021</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1815,49 +1815,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>149372021</v>
+        <v>94332943</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5533832680</t>
+          <t>232dark235670570</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kadın Sarı Nakış Detaylı Sweatshirt</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koleksiyon : Young | Materyal : Pamuklu | Stil : Trend | Kalıp : Oversize | Kumaş Tipi : Örme | Desen : Nakışlı / İşlemeli | Kol Tipi : Uzun | Kullanım Alanı : Günlük | Renk : Sarı | Model : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Ürün Tipi : İpliği Boyalı | Yaka : Bisiklet Yaka </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Beden:M</t>
+          <t>Beden:XL</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>94.5</v>
+        <v>79</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156384036/250353848/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty211/product/media/images/20211026/12/156384036/250353848/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/leprikon/kadin-sari-nakis-detayli-sweatshirt-p-149372021</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1866,49 +1866,49 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>149372021</v>
+        <v>94332943</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5533832681</t>
+          <t>232dark235670571</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kadın Sarı Nakış Detaylı Sweatshirt</t>
+          <t>Unisex Siyah Naruto Akatsuki Sembol Baskılı Kapşonlu Tasarım Hoodie</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koleksiyon : Young | Materyal : Pamuklu | Stil : Trend | Kalıp : Oversize | Kumaş Tipi : Örme | Desen : Nakışlı / İşlemeli | Kol Tipi : Uzun | Kullanım Alanı : Günlük | Renk : Sarı | Model : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Ürün Tipi : İpliği Boyalı | Yaka : Bisiklet Yaka </t>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Trend | Model : Kapüşonlu | Yaka : Bisiklet Yaka | Kalıp : Standart | Kol Tipi : Uzun Kol | Kapama : Bağlamalı | Kumaş Tipi : Dokuma | Desen : Baskılı | Renk : Siyah | Kesim : Normal | Kullanım Alanı : Günlük | Boy / Ölçü : Orta | Kol Boyu : Uzun | Koleksiyon : Design | Kalınlık : Orta </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Beden:L</t>
+          <t>Beden:XXL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>94.5</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156384036/250353848/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty211/product/media/images/20211026/12/156384036/250353848/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881380/157239453/1/1_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester</t>
+          <t>Ürünlerimiz %100 pamuklu birinci sınıf kumaştan üretilmektedir. Sonbahar - Kış aylarında kalın (3 iplik), ilkbahar - Yaz aylarında ise ince (2 iplik) olarak gönderiliir. Kol ve etek altında kaliteli ve sağlam ribana kullanılmıştır. Tüylenme yapmaz. Bay ve bayan için uygundur. (unisex)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/leprikon/kadin-sari-nakis-detayli-sweatshirt-p-149372021</t>
+          <t>https://www.trendyol.com/darkia/unisex-siyah-naruto-akatsuki-sembol-baskili-kapsonlu-tasarim-hoodie-p-94332943</t>
         </is>
       </c>
     </row>
@@ -1917,49 +1917,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>149372021</v>
+        <v>149972254</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5533832682</t>
+          <t>8496160216139</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kadın Sarı Nakış Detaylı Sweatshirt</t>
+          <t>Kadın Çikolata Oversize Uzun Basic Gömlek  DD00842</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koleksiyon : Young | Materyal : Pamuklu | Stil : Trend | Kalıp : Oversize | Kumaş Tipi : Örme | Desen : Nakışlı / İşlemeli | Kol Tipi : Uzun | Kullanım Alanı : Günlük | Renk : Sarı | Model : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Ürün Tipi : İpliği Boyalı | Yaka : Bisiklet Yaka </t>
+          <t xml:space="preserve">Kapama : Düğmeli | Materyal : Pamuk-Polyester | Kalıp : Oversize | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi | Desen : Düz Renk | Model : Oversize | Boy / Ölçü : Uzun | Ürün Tipi : Düz | Kol Boyu : Uzun | Koleksiyon : Basic </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Beden:XL</t>
+          <t>Beden:36</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>94.5</v>
+        <v>108.95</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156384036/250353848/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty211/product/media/images/20211026/12/156384036/250353848/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty212/product/media/images/20211026/12/156384036/250353848/4/4_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty185/product/media/images/20210927/17/136853831/250245591/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty185/product/media/images/20210927/17/136853831/250245591/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty183/product/media/images/20210927/17/136853831/250245591/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty184/product/media/images/20210927/17/136853831/250245591/4/4_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester</t>
+          <t>%70 Pamuk %30 Polyester</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3 - 4 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/leprikon/kadin-sari-nakis-detayli-sweatshirt-p-149372021</t>
+          <t>https://www.trendyol.com/happiness-ist/kadin-cikolata-oversize-uzun-basic-gomlek-dd00842-p-149972254</t>
         </is>
       </c>
     </row>
@@ -1968,21 +1968,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62205323</v>
+        <v>135824680</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30008120001</t>
+          <t>BLZ-202020281BYZS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kadın Bordo Nakışlı Kapüşonlu Sweatshirt Mg812</t>
+          <t>Kadın Siyah Beyaz Zebra Desen Dik Yaka Uzun Kollu Bluz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desen : Baskılı | Kalıp : Oversize | Yaka : Kapüşonlu | Renk : Bordo </t>
+          <t xml:space="preserve">Kalıp : Slim Fit | Kol Tipi : Uzun | Kumaş Tipi : Örme | Materyal : Viskon | Stil : Klasik | Yaka : Dik Yaka | Renk : Beyaz | Ürün Tipi : Baskılı | Kalınlık : İnce </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1991,26 +1991,26 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>149.98</v>
+        <v>59.99</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty207/product/media/images/20211022/23/154841781/108731568/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty209/product/media/images/20211022/23/154841781/108731568/2/2_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/2/2_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester ÜRÜNÜN KALIBI : Oversize MODEL ÖLÇÜLERİ : Boy 175, Kilo 60 NUMUNE BEDENİ : S beden YIKAMA TALİMATI : 30° Derecede Yıkayınız MADE IN TURKEY</t>
+          <t>Modelin ölçüleri: Boy: 1.70, göğüs: 87, bel: 65, kalça: 93, beden:S/34/1 stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>3 - 9 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/madmext/kadin-bordo-nakisli-kapusonlu-sweatshirt-mg812-p-62205323</t>
+          <t>https://www.trendyol.com/lacht/kadin-siyah-beyaz-zebra-desen-dik-yaka-uzun-kollu-bluz-p-135824680</t>
         </is>
       </c>
     </row>
@@ -2019,21 +2019,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62205323</v>
+        <v>135824680</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30008120002</t>
+          <t>BLZ-202020281BYZM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kadın Bordo Nakışlı Kapüşonlu Sweatshirt Mg812</t>
+          <t>Kadın Siyah Beyaz Zebra Desen Dik Yaka Uzun Kollu Bluz</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desen : Baskılı | Kalıp : Oversize | Yaka : Kapüşonlu | Renk : Bordo </t>
+          <t xml:space="preserve">Kalıp : Slim Fit | Kol Tipi : Uzun | Kumaş Tipi : Örme | Materyal : Viskon | Stil : Klasik | Yaka : Dik Yaka | Renk : Beyaz | Ürün Tipi : Baskılı | Kalınlık : İnce </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2042,26 +2042,26 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>149.98</v>
+        <v>59.99</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty207/product/media/images/20211022/23/154841781/108731568/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty209/product/media/images/20211022/23/154841781/108731568/2/2_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/2/2_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester ÜRÜNÜN KALIBI : Oversize MODEL ÖLÇÜLERİ : Boy 175, Kilo 60 NUMUNE BEDENİ : S beden YIKAMA TALİMATI : 30° Derecede Yıkayınız MADE IN TURKEY</t>
+          <t>Modelin ölçüleri: Boy: 1.70, göğüs: 87, bel: 65, kalça: 93, beden:S/34/1 stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3 - 9 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/madmext/kadin-bordo-nakisli-kapusonlu-sweatshirt-mg812-p-62205323</t>
+          <t>https://www.trendyol.com/lacht/kadin-siyah-beyaz-zebra-desen-dik-yaka-uzun-kollu-bluz-p-135824680</t>
         </is>
       </c>
     </row>
@@ -2070,21 +2070,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62205323</v>
+        <v>135824680</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30008120003</t>
+          <t>BLZ-202020281BYZL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kadın Bordo Nakışlı Kapüşonlu Sweatshirt Mg812</t>
+          <t>Kadın Siyah Beyaz Zebra Desen Dik Yaka Uzun Kollu Bluz</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desen : Baskılı | Kalıp : Oversize | Yaka : Kapüşonlu | Renk : Bordo </t>
+          <t xml:space="preserve">Kalıp : Slim Fit | Kol Tipi : Uzun | Kumaş Tipi : Örme | Materyal : Viskon | Stil : Klasik | Yaka : Dik Yaka | Renk : Beyaz | Ürün Tipi : Baskılı | Kalınlık : İnce </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2093,26 +2093,2297 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>149.98</v>
+        <v>59.99</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://cdn.dsmcdn.com//ty207/product/media/images/20211022/23/154841781/108731568/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty209/product/media/images/20211022/23/154841781/108731568/2/2_org_zoom.jpg </t>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty162/product/media/images/20210825/10/122331106/232903917/2/2_org_zoom.jpg </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ÜRÜN İÇERİK : %85 Pamuk, %15 Polyester ÜRÜNÜN KALIBI : Oversize MODEL ÖLÇÜLERİ : Boy 175, Kilo 60 NUMUNE BEDENİ : S beden YIKAMA TALİMATI : 30° Derecede Yıkayınız MADE IN TURKEY</t>
+          <t>Modelin ölçüleri: Boy: 1.70, göğüs: 87, bel: 65, kalça: 93, beden:S/34/1 stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3 - 9 Kasım</t>
+          <t>4 - 8 Kasım</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://www.trendyol.com/madmext/kadin-bordo-nakisli-kapusonlu-sweatshirt-mg812-p-62205323</t>
+          <t>https://www.trendyol.com/lacht/kadin-siyah-beyaz-zebra-desen-dik-yaka-uzun-kollu-bluz-p-135824680</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82579358</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AA00005230</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Siyah-beyaz Fitilli Super Crop Örme Atlet</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Casual | Askı : Ekstra kalın | Kol Tipi : Kolsuz | Kalıp : Crop | Kumaş Tipi : Triko | Materyal : Triko | Desen : Düz Renk | Yaka : Kare Yaka | Renk : Beyaz | Kumaş / İplik : Pamuk Akrilik | Ürün Detayı : Dokuma Garni | Ürün Tipi : Düz </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Beden:3XS</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty200/product/media/images/20211015/19/149284578/139384524/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Kadın giyim kalın askılı kare yaka crop</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/isilda/siyah-beyaz-fitilli-super-crop-orme-atlet-p-82579358</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>82579358</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AA0000523</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Siyah-beyaz Fitilli Super Crop Örme Atlet</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Casual | Askı : Ekstra kalın | Kol Tipi : Kolsuz | Kalıp : Crop | Kumaş Tipi : Triko | Materyal : Triko | Desen : Düz Renk | Yaka : Kare Yaka | Renk : Beyaz | Kumaş / İplik : Pamuk Akrilik | Ürün Detayı : Dokuma Garni | Ürün Tipi : Düz </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Beden:STD</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty200/product/media/images/20211015/19/149284578/139384524/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty199/product/media/images/20211015/19/149284578/139384524/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Kadın giyim kalın askılı kare yaka crop</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/isilda/siyah-beyaz-fitilli-super-crop-orme-atlet-p-82579358</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>141903853</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0742751078937</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Siyah Nirvana Baskılı Bisiklet Yaka Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Sokak Stili | Kalıp : Oversize | Kumaş Tipi : Örme | Kullanım Alanı : Günlük | Desen : Baskılı | Yaka : Bisiklet Yaka | Kol Tipi : Uzun Kol | Renk : Siyah | Model : Oversize | Kumaş / İplik : 2 İplik </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Beden:S/M</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>89.98</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210910/18/128700462/240355151/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210910/18/128700462/240355151/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty172/product/media/images/20210910/18/128700462/240355151/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Bu üründen en fazla 10 adet sipariş verilebilir. 10 adetin üzerindeki siparişleri Trendyol iptal etme hakkını saklı tutar.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/swistluxury/siyah-nirvana-baskili-bisiklet-yaka-sweatshirt-p-141903853</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>141903853</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0742751078944</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Siyah Nirvana Baskılı Bisiklet Yaka Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Stil : Sokak Stili | Kalıp : Oversize | Kumaş Tipi : Örme | Kullanım Alanı : Günlük | Desen : Baskılı | Yaka : Bisiklet Yaka | Kol Tipi : Uzun Kol | Renk : Siyah | Model : Oversize | Kumaş / İplik : 2 İplik </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Beden:L/XL</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>89.98</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty171/product/media/images/20210910/18/128700462/240355151/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty173/product/media/images/20210910/18/128700462/240355151/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty172/product/media/images/20210910/18/128700462/240355151/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bu üründen en fazla 10 adet sipariş verilebilir. 10 adetin üzerindeki siparişleri Trendyol iptal etme hakkını saklı tutar.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/swistluxury/siyah-nirvana-baskili-bisiklet-yaka-sweatshirt-p-141903853</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>169573334</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>K216493006000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Kadın Lacivert Oversize Kapşonlu Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Renk : Lacivert | Desen : Baskılı | Kalıp : Oversize | Kumaş Tipi : Dokuma | Kullanım Alanı : Günlük | Stil : Sokak Stili | Yaka : Bisiklet Yaka | Kol Tipi : Uzun | Kesim : Oversize | Model : Oversize | Boy / Ölçü : Uzun | Kumaş / İplik : 2 İplik | Ürün Tipi : Baskılı | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Beden:XS</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>139.98</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty214/product/media/images/20211028/12/158491078/276866555/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Oversize Kadın Sweatshirt Kadın Sweatshirt Kapşonlu Sweatshirt XS-S: En: 52cm M-L: En 56cm XL-XXL En 60cm Ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/millionaire/kadin-lacivert-oversize-kapsonlu-sweatshirt-p-169573334</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>169573334</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>K216493006001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kadın Lacivert Oversize Kapşonlu Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Renk : Lacivert | Desen : Baskılı | Kalıp : Oversize | Kumaş Tipi : Dokuma | Kullanım Alanı : Günlük | Stil : Sokak Stili | Yaka : Bisiklet Yaka | Kol Tipi : Uzun | Kesim : Oversize | Model : Oversize | Boy / Ölçü : Uzun | Kumaş / İplik : 2 İplik | Ürün Tipi : Baskılı | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Beden:M/L</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>139.98</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty214/product/media/images/20211028/12/158491078/276866555/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Oversize Kadın Sweatshirt Kadın Sweatshirt Kapşonlu Sweatshirt XS-S: En: 52cm M-L: En 56cm XL-XXL En 60cm Ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/millionaire/kadin-lacivert-oversize-kapsonlu-sweatshirt-p-169573334</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>169573334</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>K216493006002</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kadın Lacivert Oversize Kapşonlu Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : Pamuklu | Renk : Lacivert | Desen : Baskılı | Kalıp : Oversize | Kumaş Tipi : Dokuma | Kullanım Alanı : Günlük | Stil : Sokak Stili | Yaka : Bisiklet Yaka | Kol Tipi : Uzun | Kesim : Oversize | Model : Oversize | Boy / Ölçü : Uzun | Kumaş / İplik : 2 İplik | Ürün Tipi : Baskılı | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Beden:XL/XXL</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>139.98</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty214/product/media/images/20211028/12/158491078/276866555/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211028/12/158491078/276866555/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Oversize Kadın Sweatshirt Kadın Sweatshirt Kapşonlu Sweatshirt XS-S: En: 52cm M-L: En 56cm XL-XXL En 60cm Ağartıcı kullanmayınız. Düşük ısıda ütülenir. Yıkama ve ütüleme işlemleri tersten yapılır. Kuru temizleme yapılmaz. Kurutma makinesinde kurutulmaz.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/millionaire/kadin-lacivert-oversize-kapsonlu-sweatshirt-p-169573334</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79802780</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>feritccks1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kapüşonlu Unisex Siyah Cepli Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Koleksiyon : Sportswear | Materyal : %100 Organik Pamuk | Cep Tipi : Cepli | Kumaş Tipi : Kumaş | Stil : Klasik | Yaka : Kapüşonlu | Kol Tipi : Uzun Kol | Renk : Siyah | Kesim : Rahat Kesim | Desen : Düz Renk | Kalıp : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : Polar | Ürün Detayı : Cep | Ürün Tipi : Şardonlu | Kol Boyu : Uzun | Kullanım Alanı : Günlük </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Sweatshirt kumaştan, kapüşonu astarlı, büzgü bağlı ve önde anvelop kesimli üst. Uzun kollu, kanguru cepli, manşetleri ve etek ucu ribanalı. 2iplik şardonlu</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/unero/kapusonlu-unisex-siyah-cepli-sweatshirt-p-79802780</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79802780</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>feritccks2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kapüşonlu Unisex Siyah Cepli Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Koleksiyon : Sportswear | Materyal : %100 Organik Pamuk | Cep Tipi : Cepli | Kumaş Tipi : Kumaş | Stil : Klasik | Yaka : Kapüşonlu | Kol Tipi : Uzun Kol | Renk : Siyah | Kesim : Rahat Kesim | Desen : Düz Renk | Kalıp : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : Polar | Ürün Detayı : Cep | Ürün Tipi : Şardonlu | Kol Boyu : Uzun | Kullanım Alanı : Günlük </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Sweatshirt kumaştan, kapüşonu astarlı, büzgü bağlı ve önde anvelop kesimli üst. Uzun kollu, kanguru cepli, manşetleri ve etek ucu ribanalı. 2iplik şardonlu</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/unero/kapusonlu-unisex-siyah-cepli-sweatshirt-p-79802780</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>79802780</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>feritccks3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kapüşonlu Unisex Siyah Cepli Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Koleksiyon : Sportswear | Materyal : %100 Organik Pamuk | Cep Tipi : Cepli | Kumaş Tipi : Kumaş | Stil : Klasik | Yaka : Kapüşonlu | Kol Tipi : Uzun Kol | Renk : Siyah | Kesim : Rahat Kesim | Desen : Düz Renk | Kalıp : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : Polar | Ürün Detayı : Cep | Ürün Tipi : Şardonlu | Kol Boyu : Uzun | Kullanım Alanı : Günlük </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Sweatshirt kumaştan, kapüşonu astarlı, büzgü bağlı ve önde anvelop kesimli üst. Uzun kollu, kanguru cepli, manşetleri ve etek ucu ribanalı. 2iplik şardonlu</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/unero/kapusonlu-unisex-siyah-cepli-sweatshirt-p-79802780</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79802780</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>feritccks4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Kapüşonlu Unisex Siyah Cepli Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Koleksiyon : Sportswear | Materyal : %100 Organik Pamuk | Cep Tipi : Cepli | Kumaş Tipi : Kumaş | Stil : Klasik | Yaka : Kapüşonlu | Kol Tipi : Uzun Kol | Renk : Siyah | Kesim : Rahat Kesim | Desen : Düz Renk | Kalıp : Oversize | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : Polar | Ürün Detayı : Cep | Ürün Tipi : Şardonlu | Kol Boyu : Uzun | Kullanım Alanı : Günlük </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Beden:XL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty213/product/media/images/20211030/1/159845837/135371831/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Sweatshirt kumaştan, kapüşonu astarlı, büzgü bağlı ve önde anvelop kesimli üst. Uzun kollu, kanguru cepli, manşetleri ve etek ucu ribanalı. 2iplik şardonlu</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/unero/kapusonlu-unisex-siyah-cepli-sweatshirt-p-79802780</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>147465333</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>aysweat-s</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty181/product/media/images/20210920/18/134283945/247094826/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty180/product/media/images/20210920/18/134283945/247094826/2/2_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/merencollection/ay-baskili-siyah-oversize-sweatshirt-p-147465333</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>147465333</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>aysweat-m</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty181/product/media/images/20210920/18/134283945/247094826/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty180/product/media/images/20210920/18/134283945/247094826/2/2_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/merencollection/ay-baskili-siyah-oversize-sweatshirt-p-147465333</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>147465333</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>aysweat-l</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty181/product/media/images/20210920/18/134283945/247094826/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty180/product/media/images/20210920/18/134283945/247094826/2/2_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Ay Baskılı Siyah Oversize Sweatshırt</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/merencollection/ay-baskili-siyah-oversize-sweatshirt-p-147465333</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>83640313</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>J-21097-S-M</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Beden:S-M</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>83640313</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>J-21097-2XL-3XL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Beden:2XL/3XL</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>83640313</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>J-21097-L-XL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kadın Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Beden:L-XL</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty206/product/media/images/20211020/13/152831029/140843013/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty204/product/media/images/20211020/13/152831029/140843013/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Lazer Yırtık Detay Iki Iplik Kumaş Tunik Bluz (72 Cm) Modelin Ölçüleri: Boy: 1.77, Göğüs: 80 Bel: 60, Kalça: 89 Mankenin üzerindeki ürün S/36 bedendir. Stüdyo çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/janes/kadin-lazer-yirtik-detay-iki-iplik-kumas-tunik-bluz-72-cm-p-83640313</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>31116280</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2003181127786</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Patlı Kaşkorse Bluz BLZ-19000588</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Kalıp : Regular | Kol Tipi : Uzun | Materyal : Pamuklu | Stil : Casual | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>56.24</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/46d2868f/56003647/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/02/3937122d/56003647/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty98/product/media/images/20210404/02/f64bb934/56003647/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/863f36f8/56003647/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>%95 Pamuk %5 Polyester</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-patli-kaskorse-bluz-blz-19000588-p-31116280</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>31116280</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2003181127779</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Patlı Kaşkorse Bluz BLZ-19000588</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Kalıp : Regular | Kol Tipi : Uzun | Materyal : Pamuklu | Stil : Casual | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>56.24</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/46d2868f/56003647/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/02/3937122d/56003647/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty98/product/media/images/20210404/02/f64bb934/56003647/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/863f36f8/56003647/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>%95 Pamuk %5 Polyester</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-patli-kaskorse-bluz-blz-19000588-p-31116280</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>31116280</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2003181127762</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Patlı Kaşkorse Bluz BLZ-19000588</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Kalıp : Regular | Kol Tipi : Uzun | Materyal : Pamuklu | Stil : Casual | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>56.24</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/46d2868f/56003647/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/02/3937122d/56003647/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty98/product/media/images/20210404/02/f64bb934/56003647/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/02/863f36f8/56003647/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>%95 Pamuk %5 Polyester</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-patli-kaskorse-bluz-blz-19000588-p-31116280</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>141871150</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SİYAHKAP-2İPLİK.s</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Unisex Siyah Kapüşonlu Kangru Cep Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Siyah | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>40</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/6/6_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Ürün ölçüleri: S beden: Yükseklik 50 genişlik 68 cm m beden yükseklik 52 genişlik 70 cm l beden yükseklik 54 genişlik 72 cm xl beden yükseklik 56 genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-siyah-kapusonlu-kangru-cep-oversize-sweatshirt-p-141871150</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>141871150</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SİYAHKAP-2İPLİK.m</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Unisex Siyah Kapüşonlu Kangru Cep Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Siyah | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/6/6_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Ürün ölçüleri: S beden: Yükseklik 50 genişlik 68 cm m beden yükseklik 52 genişlik 70 cm l beden yükseklik 54 genişlik 72 cm xl beden yükseklik 56 genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-siyah-kapusonlu-kangru-cep-oversize-sweatshirt-p-141871150</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>141871150</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SİYAHKAP-2İPLİK.l</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Unisex Siyah Kapüşonlu Kangru Cep Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Siyah | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/6/6_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Ürün ölçüleri: S beden: Yükseklik 50 genişlik 68 cm m beden yükseklik 52 genişlik 70 cm l beden yükseklik 54 genişlik 72 cm xl beden yükseklik 56 genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-siyah-kapusonlu-kangru-cep-oversize-sweatshirt-p-141871150</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>141871150</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SİYAHKAP-2İPLİK.xl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Unisex Siyah Kapüşonlu Kangru Cep Oversize Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Siyah | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Beden:XL</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/5/5_org_zoom.jpg | https://cdn.dsmcdn.com//ty215/product/media/images/20211029/19/159620249/240311606/6/6_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Ürün ölçüleri: S beden: Yükseklik 50 genişlik 68 cm m beden yükseklik 52 genişlik 70 cm l beden yükseklik 54 genişlik 72 cm xl beden yükseklik 56 genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-siyah-kapusonlu-kangru-cep-oversize-sweatshirt-p-141871150</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>135708027</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15963959022</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Kullanım Alanı : Günlük | Desen : Baskılı | Kalıp : Oversize | Renk : Siyah | Model : Oversize | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156396472/234655243/1/1_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Baskılı Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/afrogiyim/anime-attak-sweatshirt-p-135708027</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>135708027</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15963959023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Kullanım Alanı : Günlük | Desen : Baskılı | Kalıp : Oversize | Renk : Siyah | Model : Oversize | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156396472/234655243/1/1_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Baskılı Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/afrogiyim/anime-attak-sweatshirt-p-135708027</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>135708027</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a15963959022</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Kullanım Alanı : Günlük | Desen : Baskılı | Kalıp : Oversize | Renk : Siyah | Model : Oversize | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156396472/234655243/1/1_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Baskılı Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/afrogiyim/anime-attak-sweatshirt-p-135708027</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>135708027</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15963959025</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Kullanım Alanı : Günlük | Desen : Baskılı | Kalıp : Oversize | Renk : Siyah | Model : Oversize | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Beden:XL</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty210/product/media/images/20211026/12/156396472/234655243/1/1_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Baskılı Anime Attak Sweatshirt</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4 - 5 Kasım</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/afrogiyim/anime-attak-sweatshirt-p-135708027</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>69543733</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>594044400NVMTEKSTİL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Nvm Rick Just Rick It Baskılı Siyah Erkek Kadın Unisex Kapşonlu Sweatshirt Uzun Kol</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Materyal : %100 Organik Pamuk | Model : Kapüşonlu | Renk : Siyah | Kumaş Tipi : Kumaş | Kullanım Alanı : Günlük | Yaka : Kapüşonlu | Desen : Dijital Baskı | Kesim : Normal | Kalıp : Regular | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Teknik : Dijital Baskı | Ürün Tipi : Baskılı </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Beden:XS</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>72</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881082/120536440/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty195/product/media/images/20211012/15/145881082/120536440/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty196/product/media/images/20211012/15/145881082/120536440/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Ürünlerimiz %100 Pamuk Penye 3 iplik şardonsuz (içi tüysüz) 280 gram %100 pamuk kumaşlardan üretilmektedir . Tüylenme yapmaz. Baskılar kanserojen madde içermeyen boyalar ile yapılmaktadır. Normal kalıp ( regular standart) doğru beden seçimi: Doğru beden seçimi yapmak için beden ölçü tablosunu inceleyebilir, bedeninden memnun olduğunuz benzer bir ürün ile ölçüleri kıyaslayabilirsiniz. Ürünlerimiz normal kalıptır. Normalde kullandığınız bedeni tercih edebilirsiniz. Ürün özellikleri: Ürünlerimizdeki tüm baskılar ekolojik ürün olduğunu gösteren uluslararası “%100 ecoteks (oeko-Tex)” sertifikasına sahiptir kumaşın nefes almasına , engel olmaz böylece kumaş doğallığını korur ve giyen kişiye rahatsızlık vermez tüm bunları sağlarken kalıcığını ilk günkü gibi korur. REGULAR KESİM BEDEN ÖLÇÜSÜ XS BEDEN : EN 48 CM - BOY : 64 CM S BEDEN : EN : 51 CM - BOY : 66 CM M BEDEN : EN : 53 CM - BOY : 68 CM L BEDEN : EN : 55 CM - BOY : 70 CM XL BEDEN : EN : 57 CM - BOY : 72 CM 2XL BEDEN : EN : 61 CM - BOY : 74 CM 3XL BEDEN : EN : 63 CM - BOY : 76 CM 4XL BEDEN : EN : 65 CM - BOY : 78 CM 5XL BEDEN : EN : 68 CM - BOY : 80 CM</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/nvm-tekstil/nvm-rick-just-rick-it-baskili-siyah-erkek-kadin-unisex-kapsonlu-sweatshirt-uzun-kol-p-69543733</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>69543733</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>594044401NVMTEKSTİL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Nvm Rick Just Rick It Baskılı Siyah Erkek Kadın Unisex Kapşonlu Sweatshirt Uzun Kol</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Materyal : %100 Organik Pamuk | Model : Kapüşonlu | Renk : Siyah | Kumaş Tipi : Kumaş | Kullanım Alanı : Günlük | Yaka : Kapüşonlu | Desen : Dijital Baskı | Kesim : Normal | Kalıp : Regular | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Teknik : Dijital Baskı | Ürün Tipi : Baskılı </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>58</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881082/120536440/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty195/product/media/images/20211012/15/145881082/120536440/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty196/product/media/images/20211012/15/145881082/120536440/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Ürünlerimiz %100 Pamuk Penye 3 iplik şardonsuz (içi tüysüz) 280 gram %100 pamuk kumaşlardan üretilmektedir . Tüylenme yapmaz. Baskılar kanserojen madde içermeyen boyalar ile yapılmaktadır. Normal kalıp ( regular standart) doğru beden seçimi: Doğru beden seçimi yapmak için beden ölçü tablosunu inceleyebilir, bedeninden memnun olduğunuz benzer bir ürün ile ölçüleri kıyaslayabilirsiniz. Ürünlerimiz normal kalıptır. Normalde kullandığınız bedeni tercih edebilirsiniz. Ürün özellikleri: Ürünlerimizdeki tüm baskılar ekolojik ürün olduğunu gösteren uluslararası “%100 ecoteks (oeko-Tex)” sertifikasına sahiptir kumaşın nefes almasına , engel olmaz böylece kumaş doğallığını korur ve giyen kişiye rahatsızlık vermez tüm bunları sağlarken kalıcığını ilk günkü gibi korur. REGULAR KESİM BEDEN ÖLÇÜSÜ XS BEDEN : EN 48 CM - BOY : 64 CM S BEDEN : EN : 51 CM - BOY : 66 CM M BEDEN : EN : 53 CM - BOY : 68 CM L BEDEN : EN : 55 CM - BOY : 70 CM XL BEDEN : EN : 57 CM - BOY : 72 CM 2XL BEDEN : EN : 61 CM - BOY : 74 CM 3XL BEDEN : EN : 63 CM - BOY : 76 CM 4XL BEDEN : EN : 65 CM - BOY : 78 CM 5XL BEDEN : EN : 68 CM - BOY : 80 CM</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/nvm-tekstil/nvm-rick-just-rick-it-baskili-siyah-erkek-kadin-unisex-kapsonlu-sweatshirt-uzun-kol-p-69543733</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>69543733</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>594044402NVMTEKSTİL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Nvm Rick Just Rick It Baskılı Siyah Erkek Kadın Unisex Kapşonlu Sweatshirt Uzun Kol</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Materyal : %100 Organik Pamuk | Model : Kapüşonlu | Renk : Siyah | Kumaş Tipi : Kumaş | Kullanım Alanı : Günlük | Yaka : Kapüşonlu | Desen : Dijital Baskı | Kesim : Normal | Kalıp : Regular | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Teknik : Dijital Baskı | Ürün Tipi : Baskılı </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>72</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881082/120536440/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty195/product/media/images/20211012/15/145881082/120536440/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty196/product/media/images/20211012/15/145881082/120536440/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Ürünlerimiz %100 Pamuk Penye 3 iplik şardonsuz (içi tüysüz) 280 gram %100 pamuk kumaşlardan üretilmektedir . Tüylenme yapmaz. Baskılar kanserojen madde içermeyen boyalar ile yapılmaktadır. Normal kalıp ( regular standart) doğru beden seçimi: Doğru beden seçimi yapmak için beden ölçü tablosunu inceleyebilir, bedeninden memnun olduğunuz benzer bir ürün ile ölçüleri kıyaslayabilirsiniz. Ürünlerimiz normal kalıptır. Normalde kullandığınız bedeni tercih edebilirsiniz. Ürün özellikleri: Ürünlerimizdeki tüm baskılar ekolojik ürün olduğunu gösteren uluslararası “%100 ecoteks (oeko-Tex)” sertifikasına sahiptir kumaşın nefes almasına , engel olmaz böylece kumaş doğallığını korur ve giyen kişiye rahatsızlık vermez tüm bunları sağlarken kalıcığını ilk günkü gibi korur. REGULAR KESİM BEDEN ÖLÇÜSÜ XS BEDEN : EN 48 CM - BOY : 64 CM S BEDEN : EN : 51 CM - BOY : 66 CM M BEDEN : EN : 53 CM - BOY : 68 CM L BEDEN : EN : 55 CM - BOY : 70 CM XL BEDEN : EN : 57 CM - BOY : 72 CM 2XL BEDEN : EN : 61 CM - BOY : 74 CM 3XL BEDEN : EN : 63 CM - BOY : 76 CM 4XL BEDEN : EN : 65 CM - BOY : 78 CM 5XL BEDEN : EN : 68 CM - BOY : 80 CM</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/nvm-tekstil/nvm-rick-just-rick-it-baskili-siyah-erkek-kadin-unisex-kapsonlu-sweatshirt-uzun-kol-p-69543733</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>69543733</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>594044403NVMTEKSTİL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nvm Rick Just Rick It Baskılı Siyah Erkek Kadın Unisex Kapşonlu Sweatshirt Uzun Kol</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stil : Trend | Materyal : %100 Organik Pamuk | Model : Kapüşonlu | Renk : Siyah | Kumaş Tipi : Kumaş | Kullanım Alanı : Günlük | Yaka : Kapüşonlu | Desen : Dijital Baskı | Kesim : Normal | Kalıp : Regular | Sürdürülebilir : Organik Pamuk | Boy / Ölçü : Orta | Kumaş / İplik : 3 İplik | Teknik : Dijital Baskı | Ürün Tipi : Baskılı </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>73</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty197/product/media/images/20211012/15/145881082/120536440/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty195/product/media/images/20211012/15/145881082/120536440/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty196/product/media/images/20211012/15/145881082/120536440/3/3_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Ürünlerimiz %100 Pamuk Penye 3 iplik şardonsuz (içi tüysüz) 280 gram %100 pamuk kumaşlardan üretilmektedir . Tüylenme yapmaz. Baskılar kanserojen madde içermeyen boyalar ile yapılmaktadır. Normal kalıp ( regular standart) doğru beden seçimi: Doğru beden seçimi yapmak için beden ölçü tablosunu inceleyebilir, bedeninden memnun olduğunuz benzer bir ürün ile ölçüleri kıyaslayabilirsiniz. Ürünlerimiz normal kalıptır. Normalde kullandığınız bedeni tercih edebilirsiniz. Ürün özellikleri: Ürünlerimizdeki tüm baskılar ekolojik ürün olduğunu gösteren uluslararası “%100 ecoteks (oeko-Tex)” sertifikasına sahiptir kumaşın nefes almasına , engel olmaz böylece kumaş doğallığını korur ve giyen kişiye rahatsızlık vermez tüm bunları sağlarken kalıcığını ilk günkü gibi korur. REGULAR KESİM BEDEN ÖLÇÜSÜ XS BEDEN : EN 48 CM - BOY : 64 CM S BEDEN : EN : 51 CM - BOY : 66 CM M BEDEN : EN : 53 CM - BOY : 68 CM L BEDEN : EN : 55 CM - BOY : 70 CM XL BEDEN : EN : 57 CM - BOY : 72 CM 2XL BEDEN : EN : 61 CM - BOY : 74 CM 3XL BEDEN : EN : 63 CM - BOY : 76 CM 4XL BEDEN : EN : 65 CM - BOY : 78 CM 5XL BEDEN : EN : 68 CM - BOY : 80 CM</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/nvm-tekstil/nvm-rick-just-rick-it-baskili-siyah-erkek-kadin-unisex-kapsonlu-sweatshirt-uzun-kol-p-69543733</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>141010885</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MAVİKAP-2İPLİK.S</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Unisex Mavi Kapüşonlu Kangru Cep Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Mavi | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>35</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Ürün Ölçüleri: S beden: Yükseklik 50 Genişlik 68 cm M Beden Yükseklik 52 Genişlik 70 cm L Beden Yükseklik 54 Genişlik 72 cm XL Beden Yükseklik 56 Genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-mavi-kapusonlu-kangru-cep-sweatshirt-p-141010885</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>141010885</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MAVİKAP-2İPLİK.M</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Unisex Mavi Kapüşonlu Kangru Cep Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Mavi | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>35</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Ürün Ölçüleri: S beden: Yükseklik 50 Genişlik 68 cm M Beden Yükseklik 52 Genişlik 70 cm L Beden Yükseklik 54 Genişlik 72 cm XL Beden Yükseklik 56 Genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-mavi-kapusonlu-kangru-cep-sweatshirt-p-141010885</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>141010885</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MAVİKAP-2İPLİK.L</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Unisex Mavi Kapüşonlu Kangru Cep Sweatshirt</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model : Kapüşonlu | Kullanım Alanı : Günlük | Desen : Düz | Kalıp : Oversize | Materyal : Pamuk-Polyester | Yaka : Kapüşonlu | Renk : Mavi | Kol Tipi : Uzun Kol | Boy / Ölçü : Orta | Cep : Kanguru Cep | Kumaş / İplik : 2 İplik | Ürün Tipi : Düz | Kol Boyu : Uzun | Kalınlık : Orta </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Beden:L</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>35</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty190/product/media/images/20211008/16/142812404/239311776/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty189/product/media/images/20211008/16/142812404/239311776/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Ürün Ölçüleri: S beden: Yükseklik 50 Genişlik 68 cm M Beden Yükseklik 52 Genişlik 70 cm L Beden Yükseklik 54 Genişlik 72 cm XL Beden Yükseklik 56 Genişlik 74 cmdir.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>10 - 13 Kasım</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/bee-s-store/unisex-mavi-kapusonlu-kangru-cep-sweatshirt-p-141010885</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>164230255</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>006284-1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yeni Model Kadın Kolları Tül Üzeri Flog Baskılı Bluz</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kol Tipi : Uzun | Materyal : Pamuklu | Stil : Trend | Yaka : Bisiklet Yaka | Renk : Siyah | Kalınlık : İnce </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Beden:S-M</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>80</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty202/product/media/images/20211019/0/151904511/268089819/0/0_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Sandy Kumaş Tüm ürünlerimiz kendi üretimimizdir. %100 Türk Malıdır. Ürün çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/elbisenn/yeni-model-kadin-kollari-tul-uzeri-flog-baskili-bluz-p-164230255</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>164230255</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>006284-2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yeni Model Kadın Kolları Tül Üzeri Flog Baskılı Bluz</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kol Tipi : Uzun | Materyal : Pamuklu | Stil : Trend | Yaka : Bisiklet Yaka | Renk : Siyah | Kalınlık : İnce </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Beden:L-XL</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>80</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty202/product/media/images/20211019/0/151904511/268089819/0/0_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Sandy Kumaş Tüm ürünlerimiz kendi üretimimizdir. %100 Türk Malıdır. Ürün çekimlerinde renkler ışık farklılığından dolayı değişiklik gösterebilir.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/elbisenn/yeni-model-kadin-kollari-tul-uzeri-flog-baskili-bluz-p-164230255</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>32234062</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2003181160097</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Önü Damla Balon Kol Krep Bluz BLZ-19000708</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Materyal : Polyester | Kol Tipi : Uzun | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Beden:S</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty94/product/media/images/20210404/11/f8dc71bc/57945199/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/11/327d3112/57945199/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/11/b4fb7ab6/57945199/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty95/product/media/images/20210404/11/faa57dd9/57945199/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty93/product/media/images/20210404/11/72efc548/57945199/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>%95 Polyester %5 Elastan</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-onu-damla-balon-kol-krep-bluz-blz-19000708-p-32234062</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>32234062</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2003181160080</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Önü Damla Balon Kol Krep Bluz BLZ-19000708</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Materyal : Polyester | Kol Tipi : Uzun | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Beden:M</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty94/product/media/images/20210404/11/f8dc71bc/57945199/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/11/327d3112/57945199/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/11/b4fb7ab6/57945199/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty95/product/media/images/20210404/11/faa57dd9/57945199/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty93/product/media/images/20210404/11/72efc548/57945199/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>%95 Polyester %5 Elastan</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-onu-damla-balon-kol-krep-bluz-blz-19000708-p-32234062</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32234062</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2003181174292</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Kadın Siyah Önü Damla Balon Kol Krep Bluz BLZ-19000708</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desen : Düz Renk | Materyal : Polyester | Kol Tipi : Uzun | Renk : Siyah </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Beden:XL</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty94/product/media/images/20210404/11/f8dc71bc/57945199/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty96/product/media/images/20210404/11/327d3112/57945199/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty97/product/media/images/20210404/11/b4fb7ab6/57945199/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty95/product/media/images/20210404/11/faa57dd9/57945199/4/4_org_zoom.jpg | https://cdn.dsmcdn.com//ty93/product/media/images/20210404/11/72efc548/57945199/5/5_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>%95 Polyester %5 Elastan</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/olalook/kadin-siyah-onu-damla-balon-kol-krep-bluz-blz-19000708-p-32234062</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55508637</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>8682582212204</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Camel Püsküllü Gömlek TWOAW21GO0543</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : %100 Polyester | Desen : Düz Renk | Kalıp : Oversize | Kol Tipi : Uzun | Kumaş Tipi : Dokuma | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Beden:34</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty21/product/media/images/20201111/18/25110534/98624224/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Modelin Ölçüleri: Boy: 1.77, Göğüs: 82, Bel: 61, Kalça: 89</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/trendyolmilla/camel-puskullu-gomlek-twoaw21go0543-p-55508637</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>55508637</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8682582212211</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Camel Püsküllü Gömlek TWOAW21GO0543</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : %100 Polyester | Desen : Düz Renk | Kalıp : Oversize | Kol Tipi : Uzun | Kumaş Tipi : Dokuma | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Beden:36</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty21/product/media/images/20201111/18/25110534/98624224/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Modelin Ölçüleri: Boy: 1.77, Göğüs: 82, Bel: 61, Kalça: 89</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/trendyolmilla/camel-puskullu-gomlek-twoaw21go0543-p-55508637</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>55508637</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>8682582212228</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Camel Püsküllü Gömlek TWOAW21GO0543</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : %100 Polyester | Desen : Düz Renk | Kalıp : Oversize | Kol Tipi : Uzun | Kumaş Tipi : Dokuma | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Beden:38</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty21/product/media/images/20201111/18/25110534/98624224/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Modelin Ölçüleri: Boy: 1.77, Göğüs: 82, Bel: 61, Kalça: 89</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/trendyolmilla/camel-puskullu-gomlek-twoaw21go0543-p-55508637</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>55508637</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>8682582212235</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Camel Püsküllü Gömlek TWOAW21GO0543</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : %100 Polyester | Desen : Düz Renk | Kalıp : Oversize | Kol Tipi : Uzun | Kumaş Tipi : Dokuma | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Beden:40</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty21/product/media/images/20201111/18/25110534/98624224/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Modelin Ölçüleri: Boy: 1.77, Göğüs: 82, Bel: 61, Kalça: 89</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/trendyolmilla/camel-puskullu-gomlek-twoaw21go0543-p-55508637</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>55508637</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8682582212242</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Camel Püsküllü Gömlek TWOAW21GO0543</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materyal : %100 Polyester | Desen : Düz Renk | Kalıp : Oversize | Kol Tipi : Uzun | Kumaş Tipi : Dokuma | Stil : Casual | Yaka : Gömlek Yaka | Renk : Kahverengi </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Beden:42</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/1/1_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/2/2_org_zoom.jpg | https://cdn.dsmcdn.com//ty22/product/media/images/20201111/18/25110534/98624224/3/3_org_zoom.jpg | https://cdn.dsmcdn.com//ty21/product/media/images/20201111/18/25110534/98624224/4/4_org_zoom.jpg </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Modelin Ölçüleri: Boy: 1.77, Göğüs: 82, Bel: 61, Kalça: 89</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4 - 8 Kasım</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://www.trendyol.com/trendyolmilla/camel-puskullu-gomlek-twoaw21go0543-p-55508637</t>
         </is>
       </c>
     </row>
